--- a/CPIForecast.xlsx
+++ b/CPIForecast.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\FM\Food Price Outlook\TS_programs\Main_FPO_project\2023m01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UW\Documents\forecasting-food-team-galactic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBEBB64-5BF1-4E91-A3EA-C35A1779E9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999093C6-6B35-45E8-A034-A0474E0A926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="435" windowWidth="21600" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9390" yWindow="825" windowWidth="29010" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January 2023 CPI Forecast" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Changes in Consumer Price Indexes, 2020 through 2023</t>
   </si>
@@ -228,15 +229,23 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <t>Prediction Interval 2023</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relative importance</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0??"/>
+    <numFmt numFmtId="176" formatCode="0.0??"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -264,6 +273,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -409,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,51 +433,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
@@ -476,9 +491,35 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment indent="3"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -774,7 +815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" activeCellId="1" sqref="C29 C7:D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1749,7 +1792,837 @@
       <c r="K37" s="25"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F926ACD5-43A2-4D93-9393-D237703FFAE8}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="15.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="35">
+        <v>100</v>
+      </c>
+      <c r="C2" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="35">
+        <v>10.4</v>
+      </c>
+      <c r="E2" s="35">
+        <v>3.4</v>
+      </c>
+      <c r="F2" s="35">
+        <v>3.9</v>
+      </c>
+      <c r="G2" s="35">
+        <v>9.9</v>
+      </c>
+      <c r="H2" s="35">
+        <v>2.8</v>
+      </c>
+      <c r="I2" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="J2" s="35">
+        <v>7.1</v>
+      </c>
+      <c r="K2" s="35">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="35">
+        <v>38.1</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="35">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E3" s="35">
+        <v>3.4</v>
+      </c>
+      <c r="F3" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="35">
+        <v>7.7</v>
+      </c>
+      <c r="H3" s="35">
+        <v>3.1</v>
+      </c>
+      <c r="I3" s="35">
+        <v>6.7</v>
+      </c>
+      <c r="J3" s="35">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K3" s="35">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="35">
+        <v>61.9</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="35">
+        <v>11.8</v>
+      </c>
+      <c r="E4" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="F4" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="G4" s="35">
+        <v>11.4</v>
+      </c>
+      <c r="H4" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="J4" s="35">
+        <v>8</v>
+      </c>
+      <c r="K4" s="35">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="35">
+        <v>12.7</v>
+      </c>
+      <c r="C5" s="35">
+        <v>-0.6</v>
+      </c>
+      <c r="D5" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="35">
+        <v>6.3</v>
+      </c>
+      <c r="F5" s="35">
+        <v>6.8</v>
+      </c>
+      <c r="G5" s="35">
+        <v>9.6</v>
+      </c>
+      <c r="H5" s="35">
+        <v>3.4</v>
+      </c>
+      <c r="I5" s="35">
+        <v>-3.6</v>
+      </c>
+      <c r="J5" s="35">
+        <v>1.8</v>
+      </c>
+      <c r="K5" s="35">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="35">
+        <v>8</v>
+      </c>
+      <c r="C6" s="35">
+        <v>-0.5</v>
+      </c>
+      <c r="D6" s="35">
+        <v>2</v>
+      </c>
+      <c r="E6" s="35">
+        <v>7.4</v>
+      </c>
+      <c r="F6" s="35">
+        <v>7.7</v>
+      </c>
+      <c r="G6" s="35">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H6" s="35">
+        <v>3.6</v>
+      </c>
+      <c r="I6" s="35">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="J6" s="35">
+        <v>1.8</v>
+      </c>
+      <c r="K6" s="35">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="35">
+        <v>3.6</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0</v>
+      </c>
+      <c r="D7" s="35">
+        <v>-3.1</v>
+      </c>
+      <c r="E7" s="35">
+        <v>9.6</v>
+      </c>
+      <c r="F7" s="35">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G7" s="35">
+        <v>5.3</v>
+      </c>
+      <c r="H7" s="35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I7" s="35">
+        <v>-10.4</v>
+      </c>
+      <c r="J7" s="35">
+        <v>-1.8</v>
+      </c>
+      <c r="K7" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="35">
+        <v>2.6</v>
+      </c>
+      <c r="C8" s="35">
+        <v>-1.9</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="35">
+        <v>6.3</v>
+      </c>
+      <c r="F8" s="35">
+        <v>8.6</v>
+      </c>
+      <c r="G8" s="35">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H8" s="35">
+        <v>2.6</v>
+      </c>
+      <c r="I8" s="35">
+        <v>-10.3</v>
+      </c>
+      <c r="J8" s="35">
+        <v>-3</v>
+      </c>
+      <c r="K8" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="35">
+        <v>1.8</v>
+      </c>
+      <c r="C9" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="35">
+        <v>14.7</v>
+      </c>
+      <c r="E9" s="35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F9" s="35">
+        <v>2.9</v>
+      </c>
+      <c r="G9" s="35">
+        <v>14.2</v>
+      </c>
+      <c r="H9" s="35">
+        <v>2.7</v>
+      </c>
+      <c r="I9" s="35">
+        <v>7.1</v>
+      </c>
+      <c r="J9" s="35">
+        <v>12.8</v>
+      </c>
+      <c r="K9" s="35">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="35">
+        <v>2.6</v>
+      </c>
+      <c r="C10" s="35">
+        <v>-0.6</v>
+      </c>
+      <c r="D10" s="35">
+        <v>12.2</v>
+      </c>
+      <c r="E10" s="35">
+        <v>5.6</v>
+      </c>
+      <c r="F10" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G10" s="35">
+        <v>14.6</v>
+      </c>
+      <c r="H10" s="35">
+        <v>2.9</v>
+      </c>
+      <c r="I10" s="35">
+        <v>-0.3</v>
+      </c>
+      <c r="J10" s="35">
+        <v>3.8</v>
+      </c>
+      <c r="K10" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="35">
+        <v>2.1</v>
+      </c>
+      <c r="C11" s="35">
+        <v>-0.8</v>
+      </c>
+      <c r="D11" s="35">
+        <v>5</v>
+      </c>
+      <c r="E11" s="35">
+        <v>3.3</v>
+      </c>
+      <c r="F11" s="35">
+        <v>5.4</v>
+      </c>
+      <c r="G11" s="35">
+        <v>9.1</v>
+      </c>
+      <c r="H11" s="35">
+        <v>3.3</v>
+      </c>
+      <c r="I11" s="35">
+        <v>-1.7</v>
+      </c>
+      <c r="J11" s="35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K11" s="35">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C12" s="35">
+        <v>11.1</v>
+      </c>
+      <c r="D12" s="35">
+        <v>59.9</v>
+      </c>
+      <c r="E12" s="35">
+        <v>4.3</v>
+      </c>
+      <c r="F12" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="G12" s="35">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H12" s="35">
+        <v>4.7</v>
+      </c>
+      <c r="I12" s="35">
+        <v>6.9</v>
+      </c>
+      <c r="J12" s="35">
+        <v>27.3</v>
+      </c>
+      <c r="K12" s="35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="35">
+        <v>5.9</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0</v>
+      </c>
+      <c r="D13" s="35">
+        <v>15.3</v>
+      </c>
+      <c r="E13" s="35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F13" s="35">
+        <v>1.4</v>
+      </c>
+      <c r="G13" s="35">
+        <v>12</v>
+      </c>
+      <c r="H13" s="35">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I13" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J13" s="35">
+        <v>8</v>
+      </c>
+      <c r="K13" s="35">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="35">
+        <v>1.9</v>
+      </c>
+      <c r="C14" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="35">
+        <v>23.2</v>
+      </c>
+      <c r="E14" s="35">
+        <v>1.3</v>
+      </c>
+      <c r="F14" s="35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G14" s="35">
+        <v>18.5</v>
+      </c>
+      <c r="H14" s="35">
+        <v>3.2</v>
+      </c>
+      <c r="I14" s="35">
+        <v>9.5</v>
+      </c>
+      <c r="J14" s="35">
+        <v>16.5</v>
+      </c>
+      <c r="K14" s="35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="35">
+        <v>10.4</v>
+      </c>
+      <c r="C15" s="35">
+        <v>-0.1</v>
+      </c>
+      <c r="D15" s="35">
+        <v>8.4</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1.4</v>
+      </c>
+      <c r="F15" s="35">
+        <v>3.2</v>
+      </c>
+      <c r="G15" s="35">
+        <v>8.5</v>
+      </c>
+      <c r="H15" s="35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I15" s="35">
+        <v>-2.6</v>
+      </c>
+      <c r="J15" s="35">
+        <v>2</v>
+      </c>
+      <c r="K15" s="35">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="35">
+        <v>7.9</v>
+      </c>
+      <c r="C16" s="35">
+        <v>-0.5</v>
+      </c>
+      <c r="D16" s="35">
+        <v>6.4</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="35">
+        <v>3.3</v>
+      </c>
+      <c r="G16" s="35">
+        <v>7.5</v>
+      </c>
+      <c r="H16" s="35">
+        <v>2.1</v>
+      </c>
+      <c r="I16" s="35">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="J16" s="35">
+        <v>1</v>
+      </c>
+      <c r="K16" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="C17" s="35">
+        <v>-2</v>
+      </c>
+      <c r="D17" s="35">
+        <v>3.4</v>
+      </c>
+      <c r="E17" s="35">
+        <v>-0.8</v>
+      </c>
+      <c r="F17" s="35">
+        <v>5.5</v>
+      </c>
+      <c r="G17" s="35">
+        <v>7.9</v>
+      </c>
+      <c r="H17" s="35">
+        <v>2.1</v>
+      </c>
+      <c r="I17" s="35">
+        <v>-7.5</v>
+      </c>
+      <c r="J17" s="35">
+        <v>-1.7</v>
+      </c>
+      <c r="K17" s="35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="35">
+        <v>3.7</v>
+      </c>
+      <c r="C18" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="D18" s="35">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E18" s="35">
+        <v>2.6</v>
+      </c>
+      <c r="F18" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G18" s="35">
+        <v>7</v>
+      </c>
+      <c r="H18" s="35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I18" s="35">
+        <v>-3.3</v>
+      </c>
+      <c r="J18" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K18" s="35">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="C19" s="35">
+        <v>1.3</v>
+      </c>
+      <c r="D19" s="35">
+        <v>15.5</v>
+      </c>
+      <c r="E19" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="F19" s="35">
+        <v>2.9</v>
+      </c>
+      <c r="G19" s="35">
+        <v>12</v>
+      </c>
+      <c r="H19" s="35">
+        <v>2.6</v>
+      </c>
+      <c r="I19" s="35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J19" s="35">
+        <v>9.6</v>
+      </c>
+      <c r="K19" s="35">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="35">
+        <v>2.1</v>
+      </c>
+      <c r="C20" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="D20" s="35">
+        <v>12.2</v>
+      </c>
+      <c r="E20" s="35">
+        <v>3.3</v>
+      </c>
+      <c r="F20" s="35">
+        <v>3</v>
+      </c>
+      <c r="G20" s="35">
+        <v>10.4</v>
+      </c>
+      <c r="H20" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="I20" s="35">
+        <v>6.6</v>
+      </c>
+      <c r="J20" s="35">
+        <v>10.6</v>
+      </c>
+      <c r="K20" s="35">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="35">
+        <v>8.1</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="35">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E21" s="35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F21" s="35">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G21" s="35">
+        <v>13</v>
+      </c>
+      <c r="H21" s="35">
+        <v>2.6</v>
+      </c>
+      <c r="I21" s="35">
+        <v>7.8</v>
+      </c>
+      <c r="J21" s="35">
+        <v>12</v>
+      </c>
+      <c r="K21" s="35">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="35">
+        <v>7.1</v>
+      </c>
+      <c r="C22" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="35">
+        <v>12.6</v>
+      </c>
+      <c r="E22" s="35">
+        <v>3.6</v>
+      </c>
+      <c r="F22" s="35">
+        <v>2.8</v>
+      </c>
+      <c r="G22" s="35">
+        <v>11</v>
+      </c>
+      <c r="H22" s="35">
+        <v>1.9</v>
+      </c>
+      <c r="I22" s="35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J22" s="35">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K22" s="35">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="35">
+        <v>12.6</v>
+      </c>
+      <c r="C23" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="35">
+        <v>12.9</v>
+      </c>
+      <c r="E23" s="35">
+        <v>3.1</v>
+      </c>
+      <c r="F23" s="35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G23" s="35">
+        <v>12.7</v>
+      </c>
+      <c r="H23" s="35">
+        <v>2.1</v>
+      </c>
+      <c r="I23" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="J23" s="35">
+        <v>6.8</v>
+      </c>
+      <c r="K23" s="35">
+        <v>11.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CPIForecast.xlsx
+++ b/CPIForecast.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UW\Documents\forecasting-food-team-galactic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999093C6-6B35-45E8-A034-A0474E0A926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D8D11-348F-4037-B23D-F6B4985B8058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="825" windowWidth="29010" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37305" windowHeight="14130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January 2023 CPI Forecast" sheetId="1" r:id="rId1"/>
     <sheet name="raw" sheetId="2" r:id="rId2"/>
+    <sheet name="df" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>Changes in Consumer Price Indexes, 2020 through 2023</t>
   </si>
@@ -235,6 +236,18 @@
   </si>
   <si>
     <t>Relative importance</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentChange</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,31 +504,39 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment indent="2"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment indent="3"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="C29 C7:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1803,25 +1824,24 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="J3" activeCellId="1" sqref="E3:G3 J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="15.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="33" t="s">
@@ -1849,772 +1869,772 @@
       <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>100</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="34">
         <v>0.3</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="34">
         <v>10.4</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="34">
         <v>3.4</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="34">
         <v>3.9</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="34">
         <v>9.9</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="34">
         <v>2.8</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="34">
         <v>4.2</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="34">
         <v>7.1</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="34">
         <v>10.1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>38.1</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>0.4</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="34">
         <v>3.4</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="34">
         <v>4.5</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <v>7.7</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="34">
         <v>3.1</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="34">
         <v>6.7</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="34">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="34">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>61.9</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="34">
         <v>0.3</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>11.8</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="34">
         <v>3.5</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="34">
         <v>3.5</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="34">
         <v>11.4</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="34">
         <v>2.5</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="34">
         <v>4.5</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="34">
         <v>8</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="34">
         <v>11.7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="34">
         <v>12.7</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="34">
         <v>-0.6</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>4.5</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="34">
         <v>6.3</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <v>6.8</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="34">
         <v>9.6</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="34">
         <v>3.4</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="34">
         <v>-3.6</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="34">
         <v>1.8</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="34">
         <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>8</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>-0.5</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>2</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="34">
         <v>7.4</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="34">
         <v>7.7</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="34">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="34">
         <v>3.6</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="34">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="34">
         <v>1.8</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="34">
         <v>8.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <v>3.6</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>0</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>-3.1</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="34">
         <v>9.6</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="34">
         <v>5.3</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="34">
         <v>-10.4</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="34">
         <v>-1.8</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="34">
         <v>2.6</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>-1.9</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>1.5</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <v>6.3</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>8.6</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>2.6</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="34">
         <v>-10.3</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="34">
         <v>-3</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="34">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <v>1.8</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>0.6</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>14.7</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="34">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <v>2.9</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="34">
         <v>14.2</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>2.7</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="34">
         <v>7.1</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <v>12.8</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <v>18.7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>2.6</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <v>-0.6</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>12.2</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <v>5.6</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="34">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <v>14.6</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>2.9</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <v>-0.3</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="34">
         <v>3.8</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>2.1</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <v>-0.8</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>5</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <v>3.3</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <v>5.4</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="34">
         <v>9.1</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>3.3</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="34">
         <v>-1.7</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="34">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <v>6.3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>11.1</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>59.9</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>4.3</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <v>4.5</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="34">
         <v>32.200000000000003</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="34">
         <v>4.7</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="34">
         <v>6.9</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="34">
         <v>27.3</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>5.9</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>0</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>15.3</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="34">
         <v>1.4</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="34">
         <v>12</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="34">
         <v>8</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="34">
         <v>15.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>1.9</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="34">
         <v>1.5</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>23.2</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>1.3</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="34">
         <v>18.5</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>3.2</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <v>9.5</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <v>16.5</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="34">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>10.4</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <v>-0.1</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>8.4</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <v>1.4</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="34">
         <v>3.2</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="34">
         <v>8.5</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="34">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="34">
         <v>-2.6</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="34">
         <v>2</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="34">
         <v>7.1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>7.9</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>-0.5</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>6.4</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <v>0.8</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="34">
         <v>3.3</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="34">
         <v>7.5</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <v>2.1</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="34">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="34">
         <v>1</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <v>4.2</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <v>-2</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <v>3.4</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="34">
         <v>-0.8</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="34">
         <v>5.5</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="34">
         <v>7.9</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <v>2.1</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="34">
         <v>-7.5</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="34">
         <v>-1.7</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="34">
         <v>4.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="34">
         <v>3.7</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>1.2</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="34">
         <v>2.6</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="34">
         <v>7</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="34">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="34">
         <v>-3.3</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="34">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="34">
         <v>14.6</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="34">
         <v>2.5</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>1.3</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>15.5</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="34">
         <v>3.5</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="34">
         <v>2.9</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="34">
         <v>12</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="34">
         <v>2.6</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="34">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <v>9.6</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="34">
         <v>15.3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="34">
         <v>2.1</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <v>0.4</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>12.2</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="34">
         <v>3.3</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <v>3</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <v>10.4</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <v>2.5</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <v>6.6</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <v>10.6</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <v>14.7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="34">
         <v>8.1</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>0.2</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>16.100000000000001</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="34">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="34">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="34">
         <v>13</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="34">
         <v>2.6</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="34">
         <v>7.8</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="34">
         <v>12</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="34">
         <v>16.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="34">
         <v>7.1</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <v>0.4</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <v>12.6</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="34">
         <v>3.6</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="34">
         <v>2.8</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="34">
         <v>11</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="34">
         <v>1.9</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="34">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="34">
         <v>8.6999999999999993</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="34">
         <v>12.9</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="34">
         <v>12.6</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <v>0.4</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <v>12.9</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="34">
         <v>3.1</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="34">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="34">
         <v>12.7</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <v>2.1</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="34">
         <v>2.5</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="34">
         <v>6.8</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="34">
         <v>11.1</v>
       </c>
     </row>
@@ -2625,4 +2645,506 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671DE6AE-86B8-40FD-8DDD-AE71F282F6EC}">
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="42"/>
+    <col min="3" max="3" width="14.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="42">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="43">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="42">
+        <v>2021</v>
+      </c>
+      <c r="C3" s="43">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="42">
+        <v>2022</v>
+      </c>
+      <c r="C4" s="43">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="42">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="43">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="42">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="43">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="42">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="43">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="42">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="43">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="42">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="43">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="42">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CPIForecast.xlsx
+++ b/CPIForecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UW\Documents\forecasting-food-team-galactic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evancho/Data Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D8D11-348F-4037-B23D-F6B4985B8058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{251D2405-328A-DD47-9C56-83C84F01E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37305" windowHeight="14130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January 2023 CPI Forecast" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="51">
   <si>
     <t>Changes in Consumer Price Indexes, 2020 through 2023</t>
   </si>
@@ -48,6 +48,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -56,6 +57,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -100,6 +102,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -108,6 +111,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>About this table:</t>
     </r>
@@ -199,6 +203,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -207,6 +212,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Bureau of Labor Statistics estimated expenditure shares, Nov. 2022. Food prices represent 13.8 percent of the total CPI.</t>
     </r>
@@ -226,6 +232,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -256,9 +263,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0??"/>
+    <numFmt numFmtId="164" formatCode="0.0??"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -269,17 +276,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -437,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,35 +456,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment indent="2"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment indent="2"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment indent="3"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,37 +520,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment indent="2"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment indent="3"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -836,18 +865,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J29" activeCellId="1" sqref="E29:G29 J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="14" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="14" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -862,7 +891,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="42">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -894,7 +923,7 @@
       <c r="K2" s="28"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,7 +954,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="H4" s="19"/>
       <c r="I4" s="3" t="s">
         <v>11</v>
@@ -940,7 +969,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -975,7 +1004,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -990,7 +1019,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -1025,7 +1054,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -1040,7 +1069,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1075,7 +1104,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1139,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -1145,7 +1174,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="14" t="s">
         <v>26</v>
       </c>
@@ -1215,7 +1244,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1279,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
@@ -1285,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="13" t="s">
         <v>29</v>
       </c>
@@ -1320,7 +1349,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
@@ -1355,7 +1384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
@@ -1390,7 +1419,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
@@ -1405,7 +1434,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="11" t="s">
         <v>32</v>
       </c>
@@ -1440,7 +1469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="11" t="s">
         <v>33</v>
       </c>
@@ -1475,7 +1504,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="13" t="s">
         <v>34</v>
       </c>
@@ -1510,7 +1539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="14" t="s">
         <v>35</v>
       </c>
@@ -1545,7 +1574,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="14" t="s">
         <v>36</v>
       </c>
@@ -1580,7 +1609,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="13" t="s">
         <v>37</v>
       </c>
@@ -1615,7 +1644,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1679,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="11" t="s">
         <v>39</v>
       </c>
@@ -1685,7 +1714,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="11" t="s">
         <v>40</v>
       </c>
@@ -1720,7 +1749,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="12" t="s">
         <v>41</v>
       </c>
@@ -1755,49 +1784,49 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="31" t="s">
         <v>43</v>
       </c>
       <c r="K30" s="26"/>
     </row>
-    <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="15">
       <c r="A31" t="s">
         <v>42</v>
       </c>
       <c r="K31" s="26"/>
     </row>
-    <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="15">
       <c r="A32" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="26"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K33" s="26"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="26"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>44</v>
       </c>
       <c r="K35" s="26"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>17</v>
       </c>
       <c r="K36" s="26"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="21" t="s">
         <v>18</v>
       </c>
@@ -1827,17 +1856,17 @@
       <selection activeCell="J3" activeCellId="1" sqref="E3:G3 J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="52.5" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
@@ -1862,13 +1891,13 @@
       <c r="H1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
@@ -1903,7 +1932,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>21</v>
       </c>
@@ -1938,7 +1967,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>22</v>
       </c>
@@ -1973,7 +2002,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="36" t="s">
         <v>23</v>
       </c>
@@ -2008,7 +2037,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="37" t="s">
         <v>24</v>
       </c>
@@ -2043,7 +2072,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="38" t="s">
         <v>25</v>
       </c>
@@ -2078,7 +2107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="38" t="s">
         <v>26</v>
       </c>
@@ -2113,7 +2142,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="38" t="s">
         <v>27</v>
       </c>
@@ -2148,7 +2177,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="37" t="s">
         <v>28</v>
       </c>
@@ -2183,7 +2212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="37" t="s">
         <v>29</v>
       </c>
@@ -2218,7 +2247,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="36" t="s">
         <v>30</v>
       </c>
@@ -2253,7 +2282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="36" t="s">
         <v>31</v>
       </c>
@@ -2288,7 +2317,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="36" t="s">
         <v>32</v>
       </c>
@@ -2323,7 +2352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="36" t="s">
         <v>33</v>
       </c>
@@ -2358,7 +2387,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="37" t="s">
         <v>34</v>
       </c>
@@ -2393,7 +2422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="38" t="s">
         <v>35</v>
       </c>
@@ -2428,7 +2457,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="38" t="s">
         <v>36</v>
       </c>
@@ -2463,7 +2492,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="37" t="s">
         <v>37</v>
       </c>
@@ -2498,7 +2527,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="36" t="s">
         <v>38</v>
       </c>
@@ -2533,7 +2562,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="36" t="s">
         <v>39</v>
       </c>
@@ -2568,7 +2597,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="36" t="s">
         <v>40</v>
       </c>
@@ -2603,7 +2632,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="36" t="s">
         <v>41</v>
       </c>
@@ -2649,497 +2678,1003 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671DE6AE-86B8-40FD-8DDD-AE71F282F6EC}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="42"/>
-    <col min="3" max="3" width="14.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="21.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="41"/>
+    <col min="3" max="5" width="15.6640625" style="41" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="41">
         <v>2020</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="45">
         <v>3.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="41">
         <v>2021</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="45">
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <v>2022</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="45">
         <v>9.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <v>2023</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="45">
         <v>7.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="41">
         <v>2020</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="45">
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="41">
         <v>2021</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="45">
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="41">
         <v>2022</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="45">
         <v>7.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="41">
         <v>2023</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="45">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="42">
+    <row r="10" spans="1:5">
+      <c r="A10" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="42">
+      <c r="C10" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="42">
+      <c r="C11" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="42">
+      <c r="C12" s="45">
+        <v>11.4</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="42">
+      <c r="C13" s="45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="42">
+      <c r="C14" s="45">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="42">
+      <c r="C15" s="45">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="42">
+      <c r="C16" s="45">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="42">
+      <c r="C17" s="50">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="42">
+      <c r="C18" s="45">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="42">
+      <c r="C19" s="45">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="42">
+      <c r="C20" s="45">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="42">
+      <c r="C21" s="50">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="42">
+      <c r="C22" s="45">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="42">
+      <c r="C23" s="45">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="42">
+      <c r="C24" s="45">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="42">
+      <c r="C25" s="50">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="42">
+      <c r="C26" s="45">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="42">
+      <c r="C27" s="45">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="42">
+      <c r="C28" s="45">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="42">
+      <c r="C29" s="50">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="42">
+      <c r="C30" s="45">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="42">
+      <c r="C31" s="45">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="42">
+      <c r="C32" s="45">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="42">
+      <c r="C33" s="45">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="42">
+      <c r="C34" s="45">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="42">
+      <c r="C35" s="45">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="42">
+      <c r="C36" s="45">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="42">
+      <c r="C37" s="45">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="42">
+      <c r="C38" s="45">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="42">
+      <c r="C39" s="45">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="42">
+      <c r="C40" s="45">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="42">
+      <c r="C41" s="45">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="42">
+      <c r="C42" s="45">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="42">
+      <c r="C43" s="45">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="42">
+      <c r="C44" s="45">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="42">
+      <c r="C45" s="45">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="42">
+      <c r="C46" s="45">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="42">
+      <c r="C47" s="45">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="42">
+      <c r="C48" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="42">
+      <c r="C49" s="45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="42">
+      <c r="C50" s="45">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="42">
+      <c r="C51" s="45">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="42">
+      <c r="C52" s="45">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="42">
+      <c r="C53" s="45">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="42">
+      <c r="C54" s="45">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="42">
+      <c r="C55" s="45">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="42">
+      <c r="C56" s="45">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="42">
+      <c r="C57" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="42">
+      <c r="C58" s="45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="42">
+      <c r="C59" s="45">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="42">
+      <c r="C60" s="45">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="42">
+      <c r="C61" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="42">
+      <c r="C62" s="45">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="42">
+      <c r="C63" s="45">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="42">
+      <c r="C64" s="45">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="42">
+      <c r="C65" s="45">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="42">
+      <c r="C66" s="45">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="42">
+      <c r="C67" s="45">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="42">
+      <c r="C68" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="42">
+      <c r="C69" s="45">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="42">
+      <c r="C70" s="45">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="42">
+      <c r="C71" s="45">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="42">
+      <c r="C72" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="42">
+      <c r="C73" s="45">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="42">
+      <c r="C74" s="45">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="42">
+      <c r="C75" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="42">
+      <c r="C76" s="45">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="42">
+      <c r="C77" s="45">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="42">
+      <c r="C78" s="45">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="42">
+      <c r="C79" s="45">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="42">
+      <c r="C80" s="45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="42">
+      <c r="C81" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="42">
+      <c r="C82" s="45">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="42">
+      <c r="C83" s="45">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="42">
+      <c r="C84" s="45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="41">
         <v>2023</v>
+      </c>
+      <c r="C85" s="45">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="41">
+        <v>2020</v>
+      </c>
+      <c r="C86" s="45">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="41">
+        <v>2021</v>
+      </c>
+      <c r="C87" s="45">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="41">
+        <v>2022</v>
+      </c>
+      <c r="C88" s="45">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="41">
+        <v>2023</v>
+      </c>
+      <c r="C89" s="45">
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/CPIForecast.xlsx
+++ b/CPIForecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UW\Documents\forecasting-food-team-galactic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D8D11-348F-4037-B23D-F6B4985B8058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221AFB5-98E5-4046-BDE8-075E9B837C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37305" windowHeight="14130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1824,7 +1827,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" activeCellId="1" sqref="E3:G3 J3"/>
+      <selection activeCell="J4" activeCellId="1" sqref="E4:G4 J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2652,493 +2655,505 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="42"/>
-    <col min="3" max="3" width="14.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="21.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="43"/>
+    <col min="3" max="3" width="14.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="43">
         <v>2020</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="44">
         <v>3.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="43">
         <v>2021</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="44">
         <v>3.9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="43">
         <v>2022</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="44">
         <v>9.9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="43">
         <v>2023</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="44">
         <v>7.1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="43">
         <v>2020</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="44">
         <v>3.4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <v>2021</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="44">
         <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="43">
         <v>2022</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="44">
         <v>7.7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="43">
         <v>2023</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="44">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="42">
+      <c r="B10" s="43">
         <v>2020</v>
       </c>
+      <c r="C10" s="41">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="42">
+      <c r="B11" s="43">
         <v>2021</v>
       </c>
+      <c r="C11" s="41">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="42">
+      <c r="B12" s="43">
         <v>2022</v>
       </c>
+      <c r="C12" s="41">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="42">
+      <c r="B13" s="43">
         <v>2023</v>
       </c>
+      <c r="C13" s="41">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="42">
+      <c r="B14" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="42">
+      <c r="B15" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="42">
+      <c r="B16" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="42">
+      <c r="B17" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="42">
+      <c r="B18" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="42">
+      <c r="B19" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="42">
+      <c r="B20" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="42">
+      <c r="B21" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="42">
+      <c r="B22" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="42">
+      <c r="B23" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="42">
+      <c r="B24" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="42">
+      <c r="B25" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="42">
+      <c r="B26" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="42">
+      <c r="B27" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="42">
+      <c r="B28" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="42">
+      <c r="B29" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="42">
+      <c r="B30" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="42">
+      <c r="B31" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="42">
+      <c r="B32" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="42">
+      <c r="B33" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="42">
+      <c r="B34" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="42">
+      <c r="B35" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="42">
+      <c r="B36" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="42">
+      <c r="B37" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="42">
+      <c r="B38" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="42">
+      <c r="B39" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="42">
+      <c r="B40" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="42">
+      <c r="B41" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="42">
+      <c r="B42" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="42">
+      <c r="B43" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="42">
+      <c r="B44" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="42">
+      <c r="B45" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="42">
+      <c r="B46" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="42">
+      <c r="B47" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="42">
+      <c r="B48" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="42">
+      <c r="B49" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="42">
+      <c r="B50" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="42">
+      <c r="B51" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="42">
+      <c r="B52" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="42">
+      <c r="B53" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="42">
+      <c r="B54" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="42">
+      <c r="B55" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="42">
+      <c r="B56" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="42">
+      <c r="B57" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="42">
+      <c r="B58" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="42">
+      <c r="B59" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="42">
+      <c r="B60" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="42">
+      <c r="B61" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="42">
+      <c r="B62" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="42">
+      <c r="B63" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="42">
+      <c r="B64" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="42">
+      <c r="B65" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="42">
+      <c r="B66" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="42">
+      <c r="B67" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="42">
+      <c r="B68" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="42">
+      <c r="B69" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="42">
+      <c r="B70" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="42">
+      <c r="B71" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="42">
+      <c r="B72" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="42">
+      <c r="B73" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="42">
+      <c r="B74" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="42">
+      <c r="B75" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="42">
+      <c r="B76" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="42">
+      <c r="B77" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="42">
+      <c r="B78" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="42">
+      <c r="B79" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="42">
+      <c r="B80" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="42">
+      <c r="B81" s="43">
         <v>2023</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="42">
+      <c r="B82" s="43">
         <v>2020</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="42">
+      <c r="B83" s="43">
         <v>2021</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="42">
+      <c r="B84" s="43">
         <v>2022</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="42">
+      <c r="B85" s="43">
         <v>2023</v>
       </c>
     </row>

--- a/CPIForecast.xlsx
+++ b/CPIForecast.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UW\Documents\forecasting-food-team-galactic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221AFB5-98E5-4046-BDE8-075E9B837C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9368AA1A-453B-4312-9E35-E6AFD96740BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37305" windowHeight="14130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="2685" windowWidth="27795" windowHeight="10110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January 2023 CPI Forecast" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="51">
   <si>
     <t>Changes in Consumer Price Indexes, 2020 through 2023</t>
   </si>
@@ -48,6 +48,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -56,6 +57,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -100,6 +102,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -108,6 +111,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>About this table:</t>
     </r>
@@ -199,6 +203,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -207,6 +212,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Bureau of Labor Statistics estimated expenditure shares, Nov. 2022. Food prices represent 13.8 percent of the total CPI.</t>
     </r>
@@ -226,6 +232,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -269,17 +276,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -437,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,20 +537,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -839,11 +849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J29" activeCellId="1" sqref="E29:G29 J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="8" width="15.7109375" customWidth="1"/>
@@ -1827,10 +1837,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" activeCellId="1" sqref="E4:G4 J4"/>
+      <selection activeCell="J3" activeCellId="1" sqref="E3:G3 J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -1865,11 +1875,11 @@
       <c r="H1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
@@ -2652,509 +2662,1003 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671DE6AE-86B8-40FD-8DDD-AE71F282F6EC}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="43"/>
-    <col min="3" max="3" width="14.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="1" width="21.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="41"/>
+    <col min="3" max="5" width="15.7109375" style="41" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="41">
         <v>2020</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="42">
         <v>3.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="41">
         <v>2021</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="42">
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="41">
         <v>2022</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="42">
         <v>9.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="41">
         <v>2023</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="42">
         <v>7.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="41">
         <v>2020</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="42">
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="41">
         <v>2021</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="42">
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="41">
         <v>2022</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="42">
         <v>7.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="41">
         <v>2023</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="42">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="43">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="41">
         <v>2020</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="42">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="43">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="41">
         <v>2021</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="42">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="43">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="41">
         <v>2022</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="42">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="43">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="41">
         <v>2023</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="42">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="43">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="43">
+      <c r="C14" s="42">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="43">
+      <c r="C15" s="42">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="43">
+      <c r="C16" s="42">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="43">
+      <c r="C17" s="41">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="43">
+      <c r="C18" s="42">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="43">
+      <c r="C19" s="42">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="43">
+      <c r="C20" s="42">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="43">
+      <c r="C21" s="41">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="43">
+      <c r="C22" s="42">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="43">
+      <c r="C23" s="42">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="43">
+      <c r="C24" s="42">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="43">
+      <c r="C25" s="41">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="43">
+      <c r="C26" s="42">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="43">
+      <c r="C27" s="42">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="43">
+      <c r="C28" s="42">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="43">
+      <c r="C29" s="41">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="43">
+      <c r="C30" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="43">
+      <c r="C31" s="42">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="43">
+      <c r="C32" s="42">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="43">
+      <c r="C33" s="42">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="43">
+      <c r="C34" s="42">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="43">
+      <c r="C35" s="42">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="43">
+      <c r="C36" s="42">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="43">
+      <c r="C37" s="42">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="43">
+      <c r="C38" s="42">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="43">
+      <c r="C39" s="42">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="43">
+      <c r="C40" s="42">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="43">
+      <c r="C41" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="43">
+      <c r="C42" s="42">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="43">
+      <c r="C43" s="42">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="43">
+      <c r="C44" s="42">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="43">
+      <c r="C45" s="42">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="43">
+      <c r="C46" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="43">
+      <c r="C47" s="42">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="43">
+      <c r="C48" s="42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="43">
+      <c r="C49" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="43">
+      <c r="C50" s="42">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="43">
+      <c r="C51" s="42">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="43">
+      <c r="C52" s="42">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="43">
+      <c r="C53" s="42">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="43">
+      <c r="C54" s="42">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="43">
+      <c r="C55" s="42">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="43">
+      <c r="C56" s="42">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="43">
+      <c r="C57" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="43">
+      <c r="C58" s="42">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="43">
+      <c r="C59" s="42">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="43">
+      <c r="C60" s="42">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="43">
+      <c r="C61" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="43">
+      <c r="C62" s="42">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="43">
+      <c r="C63" s="42">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="43">
+      <c r="C64" s="42">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="43">
+      <c r="C65" s="42">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="43">
+      <c r="C66" s="42">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="43">
+      <c r="C67" s="42">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="43">
+      <c r="C68" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="43">
+      <c r="C69" s="42">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="43">
+      <c r="C70" s="42">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="43">
+      <c r="C71" s="42">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="43">
+      <c r="C72" s="42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="43">
+      <c r="C73" s="42">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="43">
+      <c r="C74" s="42">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="43">
+      <c r="C75" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="43">
+      <c r="C76" s="42">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="43">
+      <c r="C77" s="42">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="43">
+      <c r="C78" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="43">
+      <c r="C79" s="42">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="43">
+      <c r="C80" s="42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="41">
         <v>2023</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="43">
+      <c r="C81" s="42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="43">
+      <c r="C82" s="42">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="41">
         <v>2021</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="43">
+      <c r="C83" s="42">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="43">
+      <c r="C84" s="42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="41">
         <v>2023</v>
+      </c>
+      <c r="C85" s="42">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="41">
+        <v>2020</v>
+      </c>
+      <c r="C86" s="42">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="41">
+        <v>2021</v>
+      </c>
+      <c r="C87" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="41">
+        <v>2022</v>
+      </c>
+      <c r="C88" s="42">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="41">
+        <v>2023</v>
+      </c>
+      <c r="C89" s="42">
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
